--- a/aoiConditions/train2Block12Test.xlsx
+++ b/aoiConditions/train2Block12Test.xlsx
@@ -34,16 +34,16 @@
     <t>falsePos</t>
   </si>
   <si>
-    <t>trainingaudio/07_pitapi2.wav</t>
-  </si>
-  <si>
-    <t>pngimages/07_suitcase.png</t>
-  </si>
-  <si>
-    <t>trainingaudio/14_pokoto1.wav</t>
-  </si>
-  <si>
-    <t>pngimages/14_coffee.png</t>
+    <t>trainingaudio/23_patoko1.wav</t>
+  </si>
+  <si>
+    <t>pngimages/23_lemon.png</t>
+  </si>
+  <si>
+    <t>trainingaudio/16_kokapi2.wav</t>
+  </si>
+  <si>
+    <t>pngimages/16_icecream.png</t>
   </si>
 </sst>
 </file>
@@ -441,10 +441,10 @@
         <v>9</v>
       </c>
       <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2">
         <v>-0.5</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>
